--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2371202.120795498</v>
+        <v>2368806.464790318</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>11.20109364802768</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>26.73542414041725</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>139.3769907860861</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>20.29684812141964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>246.8632909320862</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>188.1367642529883</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>168.5820319772146</v>
+        <v>132.5491004910164</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>96.61518205368566</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>92.44440671238939</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>104.8782289723116</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.09787151821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217836</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459366</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171415</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4331,22 +4331,22 @@
         <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>471.7012105172445</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.872095119745</v>
+        <v>709.3239917354365</v>
       </c>
       <c r="M2" t="n">
-        <v>1340.942661677348</v>
+        <v>1005.394558293039</v>
       </c>
       <c r="N2" t="n">
-        <v>1646.417767912934</v>
+        <v>1646.417767912933</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,22 +4355,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2578.678530132877</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2325.037668514464</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.974781170893</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1641.206125900779</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>1641.206125900779</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
         <v>1251.066793924967</v>
@@ -4395,13 +4395,13 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093821</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4410,22 +4410,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>464.3298303300115</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433267</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928755</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8526776630624</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="C4" t="n">
-        <v>201.9164947351555</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>192.5846945006845</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>192.5846945006845</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,7 +4486,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>1290.70044257181</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="W4" t="n">
-        <v>1001.28327253485</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="X4" t="n">
-        <v>773.2937216368322</v>
+        <v>340.4977880830776</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.501142493302</v>
+        <v>340.4977880830776</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>754.1966404484301</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="C5" t="n">
-        <v>385.2341235080184</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>385.2341235080184</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>385.2341235080184</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F5" t="n">
-        <v>378.2886227588149</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>366.6471849993509</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
@@ -4589,28 +4589,28 @@
         <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2275.778449951651</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2275.778449951651</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019558</v>
+        <v>1944.71556260808</v>
       </c>
       <c r="W5" t="n">
-        <v>1904.401570749443</v>
+        <v>1591.946907337966</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.935812488364</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1140.796480512552</v>
+        <v>1218.481149076886</v>
       </c>
     </row>
     <row r="6">
@@ -4629,37 +4629,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M6" t="n">
-        <v>1219.783862516113</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1965.620148003311</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.6491318331198</v>
+        <v>388.7122269888372</v>
       </c>
       <c r="C7" t="n">
-        <v>199.7129489052128</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="D7" t="n">
-        <v>199.7129489052128</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
         <v>77.98108068080549</v>
@@ -4729,46 +4729,46 @@
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.698789368813</v>
+        <v>1410.974327616948</v>
       </c>
       <c r="T7" t="n">
-        <v>1253.764214910794</v>
+        <v>1188.03975315893</v>
       </c>
       <c r="U7" t="n">
-        <v>1253.764214910794</v>
+        <v>898.921976169328</v>
       </c>
       <c r="V7" t="n">
-        <v>999.079726704907</v>
+        <v>898.921976169328</v>
       </c>
       <c r="W7" t="n">
-        <v>999.079726704907</v>
+        <v>609.5048061323673</v>
       </c>
       <c r="X7" t="n">
-        <v>771.0901758068896</v>
+        <v>609.5048061323673</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.2975966633595</v>
+        <v>388.7122269888372</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.610655259717</v>
+        <v>875.8428234296139</v>
       </c>
       <c r="C8" t="n">
-        <v>946.6481383193052</v>
+        <v>778.251730446093</v>
       </c>
       <c r="D8" t="n">
-        <v>946.6481383193052</v>
+        <v>778.251730446093</v>
       </c>
       <c r="E8" t="n">
-        <v>560.8598857210609</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104773</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135505</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.81558556073</v>
+        <v>1652.581995469547</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.34982729965</v>
+        <v>1652.581995469547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.210495323839</v>
+        <v>1262.442663493736</v>
       </c>
     </row>
     <row r="9">
@@ -4866,19 +4866,19 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
         <v>115.2852578226161</v>
@@ -4887,19 +4887,19 @@
         <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>942.9699568457225</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962037</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.69146728778</v>
+        <v>1699.68540766379</v>
       </c>
       <c r="O9" t="n">
-        <v>1965.620148003311</v>
+        <v>2034.614088379321</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.79985532281972</v>
+        <v>475.4388041934693</v>
       </c>
       <c r="C10" t="n">
-        <v>51.79985532281972</v>
+        <v>475.4388041934693</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003707</v>
+        <v>870.7935792529669</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8296604634102</v>
+        <v>581.3764092160063</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8401095653928</v>
+        <v>581.3764092160063</v>
       </c>
       <c r="Y10" t="n">
-        <v>233.4483201530594</v>
+        <v>581.3764092160063</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,19 +5534,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,10 +6309,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6470,16 +6470,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6932,28 +6932,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908938</v>
@@ -7561,58 +7561,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7737,13 +7737,13 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>185.8651263285108</v>
       </c>
       <c r="L2" t="n">
-        <v>200.6571919233145</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>369.603020508343</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>142.3850817401788</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>87.99713246344908</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>256.7871481632765</v>
+        <v>277.4922425530993</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.4400048971987</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>347.1830914177567</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>22.36271716134979</v>
+        <v>162.7491560325417</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.204770029246527e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075289</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.199738306158224</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>146.8157004124958</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448769</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.0953751173</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>812636.0953751171</v>
+        <v>812636.095375117</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>812636.0953751173</v>
+        <v>812636.0953751171</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
@@ -26353,7 +26353,7 @@
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.0168260478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695019</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695015</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695015</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695037</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="J4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695036</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695034</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695026</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573032.5221893369</v>
+        <v>-573032.5221893367</v>
       </c>
       <c r="C6" t="n">
-        <v>220469.1235215625</v>
+        <v>220469.1235215621</v>
       </c>
       <c r="D6" t="n">
-        <v>393233.4833114547</v>
+        <v>393233.4833114548</v>
       </c>
       <c r="E6" t="n">
-        <v>-2938.9283338487</v>
+        <v>-2973.666259284685</v>
       </c>
       <c r="F6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="G6" t="n">
-        <v>497949.9394119019</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="H6" t="n">
-        <v>497949.9394119018</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="I6" t="n">
-        <v>497949.9394119019</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="J6" t="n">
-        <v>328535.9225858538</v>
+        <v>328501.1846604183</v>
       </c>
       <c r="K6" t="n">
-        <v>497949.9394119022</v>
+        <v>497915.2014864666</v>
       </c>
       <c r="L6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="M6" t="n">
-        <v>367065.482507667</v>
+        <v>367030.744582231</v>
       </c>
       <c r="N6" t="n">
-        <v>497949.939411902</v>
+        <v>497915.2014864665</v>
       </c>
       <c r="O6" t="n">
-        <v>497949.9394119019</v>
+        <v>497915.2014864663</v>
       </c>
       <c r="P6" t="n">
-        <v>497949.9394119019</v>
+        <v>497915.2014864663</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>198.6965985811558</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>359.5025145156363</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>27.26156389672124</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27585,25 +27585,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.8407952024083</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>53.9229963163736</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>18.42214169277244</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.90313735687647</v>
+        <v>61.93606884307474</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>268.6577097173219</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>314.431639029322</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>74.95375120962566</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.48678183388475</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>295.3955842839422</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197783</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,19 +34699,19 @@
         <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>349.2944314446679</v>
       </c>
       <c r="L2" t="n">
-        <v>440.6802032548216</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
@@ -34778,7 +34778,7 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>265.0346698919759</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
@@ -34790,13 +34790,13 @@
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>329.2142554447206</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760962034</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>626.7930971454234</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352464</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>484.436699710349</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352464</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
@@ -35267,10 +35267,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>274.3594119745001</v>
+        <v>414.745850845692</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>157.5541453095832</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753338</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010411</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
